--- a/miniprojects/qa_excel_compiler/QAfolder/John_Quest.xlsx
+++ b/miniprojects/qa_excel_compiler/QAfolder/John_Quest.xlsx
@@ -475,12 +475,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NO ISSUE</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Actually found another issue here</t>
+          <t>Translation looks good</t>
         </is>
       </c>
     </row>
@@ -500,12 +500,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ERROR</t>
+          <t>ISSUE</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Typo: should be 'Strange Land' singular</t>
+          <t>Typo: should be singular</t>
         </is>
       </c>
     </row>
@@ -540,7 +540,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NO ISSUE</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -636,7 +636,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NO ISSUE</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>PENDING</t>
+          <t>BLOCKED</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
